--- a/output/StructureDefinition-NatlDir-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDir-InsurancePlan.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-InsurancePlan</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-InsurancePlan</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>An InsurancePlan is a discrete package of health insurance coverage benefits that are offered under a particular network type. A given payer’s products typically differ by network type and/or covered benefits. A plan pairs a product’s covered benefits with the particular cost sharing structure offered to a consumer. A given product may comprise multiple plans (i.e. each plan offers different cost sharing requirements for the same set of covered benefits).
-InsurancePlan describes a health insurance offering comprised of a list of covered benefits (i.e. the product), costs associated with those benefits (i.e. the plan), and additional information about the offering, such as who it is owned and administered by, a coverage area, contact information, etc.</t>
+    <t>An InsurancePlan is a discrete package of health insurance coverage benefits that are offered under a particular network type. A given payer’s products typically differ by network type and/or covered benefits. A plan pairs a product’s covered benefits with the particular cost sharing structure offered to a consumer. A given product may comprise multiple plans (i.e. each plan offers different cost sharing requirements for the same set of covered benefits).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/InsurancePlan</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-InsurancePlan</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -818,7 +817,7 @@
     <t>The kind of health insurance product.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/InsuranceProductTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/InsuranceProductTypeVS</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -874,7 +873,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -896,7 +895,7 @@
     <t>InsurancePlan.coverageArea</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1285,7 +1284,7 @@
     <t>InsurancePlan.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>
@@ -1301,7 +1300,7 @@
     <t>InsurancePlan.network</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Network)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Network)
 </t>
   </si>
   <si>
@@ -1465,7 +1464,7 @@
     <t>Type of plan. For example, "Platinum" or "High Deductable".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/InsurancePlanTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/InsurancePlanTypeVS</t>
   </si>
   <si>
     <t>InsurancePlan.plan.coverageArea</t>
@@ -1996,7 +1995,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.96875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
